--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Guca2a-Gucy2c.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Guca2a-Gucy2c.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.162496333333333</v>
+        <v>1.134962</v>
       </c>
       <c r="H2">
-        <v>3.487489</v>
+        <v>3.404886</v>
       </c>
       <c r="I2">
-        <v>0.5621538612314586</v>
+        <v>0.4107584930630159</v>
       </c>
       <c r="J2">
-        <v>0.5621538612314586</v>
+        <v>0.4107584930630159</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -564,22 +564,22 @@
         <v>0.379421</v>
       </c>
       <c r="O2">
-        <v>0.4712198005685622</v>
+        <v>0.1713830533493957</v>
       </c>
       <c r="P2">
-        <v>0.4712198005685622</v>
+        <v>0.1713830533493957</v>
       </c>
       <c r="Q2">
-        <v>0.1470251737632222</v>
+        <v>0.1435428056673334</v>
       </c>
       <c r="R2">
-        <v>1.323226563869</v>
+        <v>1.291885251006</v>
       </c>
       <c r="S2">
-        <v>0.2648980303783351</v>
+        <v>0.07039704473033621</v>
       </c>
       <c r="T2">
-        <v>0.2648980303783351</v>
+        <v>0.07039704473033621</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.162496333333333</v>
+        <v>1.134962</v>
       </c>
       <c r="H3">
-        <v>3.487489</v>
+        <v>3.404886</v>
       </c>
       <c r="I3">
-        <v>0.5621538612314586</v>
+        <v>0.4107584930630159</v>
       </c>
       <c r="J3">
-        <v>0.5621538612314586</v>
+        <v>0.4107584930630159</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,33 +620,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.1419226666666667</v>
+        <v>0.5694333333333333</v>
       </c>
       <c r="N3">
-        <v>0.425768</v>
+        <v>1.7083</v>
       </c>
       <c r="O3">
-        <v>0.5287801994314378</v>
+        <v>0.7716327510516618</v>
       </c>
       <c r="P3">
-        <v>0.5287801994314378</v>
+        <v>0.7716327510516618</v>
       </c>
       <c r="Q3">
-        <v>0.1649845796168889</v>
+        <v>0.6462851948666667</v>
       </c>
       <c r="R3">
-        <v>1.484861216552</v>
+        <v>5.8165667538</v>
       </c>
       <c r="S3">
-        <v>0.2972558308531235</v>
+        <v>0.3169547060200499</v>
       </c>
       <c r="T3">
-        <v>0.2972558308531235</v>
+        <v>0.3169547060200499</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,55 +655,55 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5207596666666666</v>
+        <v>1.134962</v>
       </c>
       <c r="H4">
-        <v>1.562279</v>
+        <v>3.404886</v>
       </c>
       <c r="I4">
-        <v>0.25182622000265</v>
+        <v>0.4107584930630159</v>
       </c>
       <c r="J4">
-        <v>0.25182622000265</v>
+        <v>0.4107584930630159</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1264736666666667</v>
+        <v>0.042052</v>
       </c>
       <c r="N4">
-        <v>0.379421</v>
+        <v>0.126156</v>
       </c>
       <c r="O4">
-        <v>0.4712198005685622</v>
+        <v>0.05698419559894249</v>
       </c>
       <c r="P4">
-        <v>0.4712198005685622</v>
+        <v>0.05698419559894248</v>
       </c>
       <c r="Q4">
-        <v>0.06586238449544445</v>
+        <v>0.047727422024</v>
       </c>
       <c r="R4">
-        <v>0.592761460459</v>
+        <v>0.429546798216</v>
       </c>
       <c r="S4">
-        <v>0.1186655011675836</v>
+        <v>0.02340674231262976</v>
       </c>
       <c r="T4">
-        <v>0.1186655011675836</v>
+        <v>0.02340674231262975</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -732,10 +732,10 @@
         <v>1.562279</v>
       </c>
       <c r="I5">
-        <v>0.25182622000265</v>
+        <v>0.1884701478357852</v>
       </c>
       <c r="J5">
-        <v>0.25182622000265</v>
+        <v>0.1884701478357852</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,33 +744,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.1419226666666667</v>
+        <v>0.1264736666666667</v>
       </c>
       <c r="N5">
-        <v>0.425768</v>
+        <v>0.379421</v>
       </c>
       <c r="O5">
-        <v>0.5287801994314378</v>
+        <v>0.1713830533493957</v>
       </c>
       <c r="P5">
-        <v>0.5287801994314378</v>
+        <v>0.1713830533493957</v>
       </c>
       <c r="Q5">
-        <v>0.07390760058577778</v>
+        <v>0.06586238449544445</v>
       </c>
       <c r="R5">
-        <v>0.6651684052719999</v>
+        <v>0.592761460459</v>
       </c>
       <c r="S5">
-        <v>0.1331607188350664</v>
+        <v>0.03230058940130886</v>
       </c>
       <c r="T5">
-        <v>0.1331607188350664</v>
+        <v>0.03230058940130886</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
@@ -779,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.270727</v>
+        <v>0.5207596666666666</v>
       </c>
       <c r="H6">
-        <v>0.812181</v>
+        <v>1.562279</v>
       </c>
       <c r="I6">
-        <v>0.1309167384237849</v>
+        <v>0.1884701478357852</v>
       </c>
       <c r="J6">
-        <v>0.1309167384237849</v>
+        <v>0.1884701478357852</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,33 +806,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.1264736666666667</v>
+        <v>0.5694333333333333</v>
       </c>
       <c r="N6">
-        <v>0.379421</v>
+        <v>1.7083</v>
       </c>
       <c r="O6">
-        <v>0.4712198005685622</v>
+        <v>0.7716327510516618</v>
       </c>
       <c r="P6">
-        <v>0.4712198005685622</v>
+        <v>0.7716327510516618</v>
       </c>
       <c r="Q6">
-        <v>0.03423983635566667</v>
+        <v>0.2965379128555555</v>
       </c>
       <c r="R6">
-        <v>0.308158527201</v>
+        <v>2.6688412157</v>
       </c>
       <c r="S6">
-        <v>0.06169055937114254</v>
+        <v>0.1454297386656404</v>
       </c>
       <c r="T6">
-        <v>0.06169055937114256</v>
+        <v>0.1454297386656404</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -850,51 +850,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.270727</v>
+        <v>0.5207596666666666</v>
       </c>
       <c r="H7">
-        <v>0.812181</v>
+        <v>1.562279</v>
       </c>
       <c r="I7">
-        <v>0.1309167384237849</v>
+        <v>0.1884701478357852</v>
       </c>
       <c r="J7">
-        <v>0.1309167384237849</v>
+        <v>0.1884701478357852</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1419226666666667</v>
+        <v>0.042052</v>
       </c>
       <c r="N7">
-        <v>0.425768</v>
+        <v>0.126156</v>
       </c>
       <c r="O7">
-        <v>0.5287801994314378</v>
+        <v>0.05698419559894249</v>
       </c>
       <c r="P7">
-        <v>0.5287801994314378</v>
+        <v>0.05698419559894248</v>
       </c>
       <c r="Q7">
-        <v>0.03842229777866667</v>
+        <v>0.02189898550266666</v>
       </c>
       <c r="R7">
-        <v>0.345800680008</v>
+        <v>0.197090869524</v>
       </c>
       <c r="S7">
-        <v>0.06922617905264236</v>
+        <v>0.01073981976883599</v>
       </c>
       <c r="T7">
-        <v>0.06922617905264238</v>
+        <v>0.01073981976883599</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -906,22 +906,22 @@
         <v>21</v>
       </c>
       <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="G8">
-        <v>0.1139496666666667</v>
+        <v>0.8996876666666666</v>
       </c>
       <c r="H8">
-        <v>0.341849</v>
+        <v>2.699063</v>
       </c>
       <c r="I8">
-        <v>0.05510318034210656</v>
+        <v>0.3256094478822911</v>
       </c>
       <c r="J8">
-        <v>0.05510318034210655</v>
+        <v>0.3256094478822911</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,27 +936,27 @@
         <v>0.379421</v>
       </c>
       <c r="O8">
-        <v>0.4712198005685622</v>
+        <v>0.1713830533493957</v>
       </c>
       <c r="P8">
-        <v>0.4712198005685622</v>
+        <v>0.1713830533493957</v>
       </c>
       <c r="Q8">
-        <v>0.01441163215877778</v>
+        <v>0.1137867980581111</v>
       </c>
       <c r="R8">
-        <v>0.129704689429</v>
+        <v>1.024081182523</v>
       </c>
       <c r="S8">
-        <v>0.02596570965150097</v>
+        <v>0.05580394137747797</v>
       </c>
       <c r="T8">
-        <v>0.02596570965150097</v>
+        <v>0.05580394137747795</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -965,55 +965,303 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.8996876666666666</v>
+      </c>
+      <c r="H9">
+        <v>2.699063</v>
+      </c>
+      <c r="I9">
+        <v>0.3256094478822911</v>
+      </c>
+      <c r="J9">
+        <v>0.3256094478822911</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.5694333333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.7083</v>
+      </c>
+      <c r="O9">
+        <v>0.7716327510516618</v>
+      </c>
+      <c r="P9">
+        <v>0.7716327510516618</v>
+      </c>
+      <c r="Q9">
+        <v>0.5123121469888888</v>
+      </c>
+      <c r="R9">
+        <v>4.6108093229</v>
+      </c>
+      <c r="S9">
+        <v>0.251250914037825</v>
+      </c>
+      <c r="T9">
+        <v>0.251250914037825</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E9">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="G10">
+        <v>0.8996876666666666</v>
+      </c>
+      <c r="H10">
+        <v>2.699063</v>
+      </c>
+      <c r="I10">
+        <v>0.3256094478822911</v>
+      </c>
+      <c r="J10">
+        <v>0.3256094478822911</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G9">
-        <v>0.1139496666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.341849</v>
-      </c>
-      <c r="I9">
-        <v>0.05510318034210656</v>
-      </c>
-      <c r="J9">
-        <v>0.05510318034210655</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.1419226666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.425768</v>
-      </c>
-      <c r="O9">
-        <v>0.5287801994314378</v>
-      </c>
-      <c r="P9">
-        <v>0.5287801994314378</v>
-      </c>
-      <c r="Q9">
-        <v>0.01617204055911111</v>
-      </c>
-      <c r="R9">
-        <v>0.145548365032</v>
-      </c>
-      <c r="S9">
-        <v>0.02913747069060559</v>
-      </c>
-      <c r="T9">
-        <v>0.02913747069060559</v>
+      <c r="M10">
+        <v>0.042052</v>
+      </c>
+      <c r="N10">
+        <v>0.126156</v>
+      </c>
+      <c r="O10">
+        <v>0.05698419559894249</v>
+      </c>
+      <c r="P10">
+        <v>0.05698419559894248</v>
+      </c>
+      <c r="Q10">
+        <v>0.03783366575866666</v>
+      </c>
+      <c r="R10">
+        <v>0.3405029918279999</v>
+      </c>
+      <c r="S10">
+        <v>0.01855459246698815</v>
+      </c>
+      <c r="T10">
+        <v>0.01855459246698814</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.207679</v>
+      </c>
+      <c r="H11">
+        <v>0.6230370000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.07516191121890785</v>
+      </c>
+      <c r="J11">
+        <v>0.07516191121890783</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.1264736666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.379421</v>
+      </c>
+      <c r="O11">
+        <v>0.1713830533493957</v>
+      </c>
+      <c r="P11">
+        <v>0.1713830533493957</v>
+      </c>
+      <c r="Q11">
+        <v>0.02626592461966667</v>
+      </c>
+      <c r="R11">
+        <v>0.236393321577</v>
+      </c>
+      <c r="S11">
+        <v>0.01288147784027262</v>
+      </c>
+      <c r="T11">
+        <v>0.01288147784027262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.207679</v>
+      </c>
+      <c r="H12">
+        <v>0.6230370000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.07516191121890785</v>
+      </c>
+      <c r="J12">
+        <v>0.07516191121890783</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.5694333333333333</v>
+      </c>
+      <c r="N12">
+        <v>1.7083</v>
+      </c>
+      <c r="O12">
+        <v>0.7716327510516618</v>
+      </c>
+      <c r="P12">
+        <v>0.7716327510516618</v>
+      </c>
+      <c r="Q12">
+        <v>0.1182593452333334</v>
+      </c>
+      <c r="R12">
+        <v>1.0643341071</v>
+      </c>
+      <c r="S12">
+        <v>0.05799739232814663</v>
+      </c>
+      <c r="T12">
+        <v>0.05799739232814662</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.207679</v>
+      </c>
+      <c r="H13">
+        <v>0.6230370000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.07516191121890785</v>
+      </c>
+      <c r="J13">
+        <v>0.07516191121890783</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.042052</v>
+      </c>
+      <c r="N13">
+        <v>0.126156</v>
+      </c>
+      <c r="O13">
+        <v>0.05698419559894249</v>
+      </c>
+      <c r="P13">
+        <v>0.05698419559894248</v>
+      </c>
+      <c r="Q13">
+        <v>0.008733317308000001</v>
+      </c>
+      <c r="R13">
+        <v>0.078599855772</v>
+      </c>
+      <c r="S13">
+        <v>0.004283041050488595</v>
+      </c>
+      <c r="T13">
+        <v>0.004283041050488593</v>
       </c>
     </row>
   </sheetData>
